--- a/storage/files/saved/write.xlsx
+++ b/storage/files/saved/write.xlsx
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -508,37 +502,27 @@
     <col min="7" max="7" width="16" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -546,7 +530,7 @@
         <v>43405</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="6">
@@ -556,7 +540,7 @@
         <v>0.73958333333333</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -574,13 +558,13 @@
         <v>43406</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="6"/>
       <c r="E9" s="1"/>
       <c r="F9" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -589,7 +573,7 @@
         <v>43407</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="6">
@@ -599,7 +583,7 @@
         <v>0.72916666666667</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -608,13 +592,13 @@
         <v>43408</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
       <c r="E11" s="1"/>
       <c r="F11" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -623,13 +607,13 @@
         <v>43409</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
       <c r="E12" s="1"/>
       <c r="F12" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -638,13 +622,13 @@
         <v>43410</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -653,13 +637,13 @@
         <v>43411</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="6"/>
       <c r="E14" s="1"/>
       <c r="F14" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -668,13 +652,13 @@
         <v>43412</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
       <c r="F15" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -683,13 +667,13 @@
         <v>43413</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="6"/>
       <c r="E16" s="1"/>
       <c r="F16" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -698,13 +682,13 @@
         <v>43414</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="6"/>
       <c r="E17" s="1"/>
       <c r="F17" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -713,13 +697,13 @@
         <v>43415</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="6"/>
       <c r="E18" s="1"/>
       <c r="F18" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -728,13 +712,13 @@
         <v>43416</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="6"/>
       <c r="E19" s="1"/>
       <c r="F19" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -743,13 +727,13 @@
         <v>43417</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
       <c r="E20" s="1"/>
       <c r="F20" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -758,13 +742,13 @@
         <v>43418</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
       <c r="E21" s="1"/>
       <c r="F21" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -773,13 +757,13 @@
         <v>43419</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="6"/>
       <c r="E22" s="1"/>
       <c r="F22" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -788,13 +772,13 @@
         <v>43420</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="6"/>
       <c r="E23" s="1"/>
       <c r="F23" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -803,13 +787,13 @@
         <v>43421</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="6"/>
       <c r="E24" s="1"/>
       <c r="F24" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -818,13 +802,13 @@
         <v>43422</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="6"/>
       <c r="E25" s="1"/>
       <c r="F25" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -833,13 +817,13 @@
         <v>43423</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="6"/>
       <c r="E26" s="1"/>
       <c r="F26" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -848,13 +832,13 @@
         <v>43424</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
       <c r="E27" s="1"/>
       <c r="F27" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -863,13 +847,13 @@
         <v>43425</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="6"/>
       <c r="E28" s="1"/>
       <c r="F28" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -878,13 +862,13 @@
         <v>43426</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="6"/>
       <c r="E29" s="1"/>
       <c r="F29" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -893,13 +877,13 @@
         <v>43427</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="6"/>
       <c r="E30" s="1"/>
       <c r="F30" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -908,13 +892,13 @@
         <v>43428</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="6"/>
       <c r="E31" s="1"/>
       <c r="F31" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -923,13 +907,13 @@
         <v>43429</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="6"/>
       <c r="E32" s="1"/>
       <c r="F32" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -938,13 +922,13 @@
         <v>43430</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="6"/>
       <c r="E33" s="1"/>
       <c r="F33" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -953,13 +937,13 @@
         <v>43431</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="6"/>
       <c r="E34" s="1"/>
       <c r="F34" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -968,13 +952,13 @@
         <v>43432</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="6"/>
       <c r="E35" s="1"/>
       <c r="F35" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -983,13 +967,13 @@
         <v>43433</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="6"/>
       <c r="E36" s="1"/>
       <c r="F36" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -998,13 +982,13 @@
         <v>43434</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="6"/>
       <c r="E37" s="1"/>
       <c r="F37" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1013,13 +997,13 @@
         <v>43435</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="6"/>
       <c r="E38" s="1"/>
       <c r="F38" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1043,7 +1027,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1058,6 +1042,11 @@
       <formula>$B7="Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="B8">
+      <formula1>Sheet2!$A$2:$A$9</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
@@ -1090,27 +1079,27 @@
   <sheetData>
     <row r="1" spans="1:1" customHeight="1" ht="15.75">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" customHeight="1" ht="16.5">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" customHeight="1" ht="16.5">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" customHeight="1" ht="16.5">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" customHeight="1" ht="16.5">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1" customHeight="1" ht="16.5">
